--- a/dataset/GDP.xlsx
+++ b/dataset/GDP.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>country</t>
   </si>
   <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>17527163695000</t>
   </si>
   <si>
     <t>United Kingdom</t>
@@ -64,12 +67,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -79,16 +97,78 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,101 +182,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -209,187 +212,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,6 +403,51 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -414,35 +462,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,36 +484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -500,6 +492,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -508,10 +511,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -520,144 +523,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -980,12 +985,13 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:H7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="15.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1024,152 +1030,152 @@
       <c r="B2" s="2">
         <v>16784849196000</v>
       </c>
-      <c r="C2" s="2">
-        <v>17527163695000</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
         <v>18224704440000</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>18714960538000</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>19519353692000</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>20580159776000</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>21433226000000</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
         <v>2786022872706.81</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>3063803240208.01</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>2928591002002.51</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>2694283209613.29</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>2666229179958.01</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>2860667727551.97</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>2829108219165.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
         <v>1576184467015.49</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>1467483705131.74</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>1351693984524.5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>1208846993739.99</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>1329188475752.32</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>1432881172002.17</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>1396567014733.23</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
         <v>1847208522155.34</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>1803533209844.65</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>1556129524418.21</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>1528243213982.08</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>1649878054226.82</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>1716262621082.22</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>1736425629519.96</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
         <v>366829390478.954</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>350904575292.317</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>317620522794.827</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>296357282715.109</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>349554116683.818</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>368288939768.322</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>351431649241.439</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
         <v>1856722121394.53</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>2039127446298.55</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>2103587817041.78</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>2294797978291.98</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>2652754685834.59</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>2713165057513.35</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>2868929415617.02</v>
       </c>
     </row>
